--- a/data/long_razon/P23_2-Edad-long_razon.xlsx
+++ b/data/long_razon/P23_2-Edad-long_razon.xlsx
@@ -37,7 +37,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="11">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -63,6 +63,13 @@
       <right style="thin"/>
       <top style="thin"/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin"/>
+      <bottom style="thin"/>
       <diagonal/>
     </border>
     <border>
@@ -497,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H17"/>
+  <dimension ref="A1:N18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -516,6 +523,12 @@
     <col width="14" customWidth="1" min="6" max="6"/>
     <col width="14" customWidth="1" min="7" max="7"/>
     <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -531,18 +544,24 @@
         </is>
       </c>
       <c r="D1" s="3" t="n"/>
-      <c r="E1" s="3" t="inlineStr">
-        <is>
-          <t>Mujer</t>
-        </is>
-      </c>
+      <c r="E1" s="3" t="n"/>
       <c r="F1" s="3" t="n"/>
       <c r="G1" s="3" t="inlineStr">
         <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="inlineStr">
+        <is>
           <t>Total</t>
         </is>
       </c>
-      <c r="H1" s="3" t="n"/>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -559,22 +578,52 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
+          <t>M5-M4</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2-Mz1</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
           <t>M3-M2</t>
         </is>
       </c>
-      <c r="F2" s="3" t="inlineStr">
+      <c r="H2" s="3" t="inlineStr">
         <is>
           <t>M4-M3</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>M5-M4</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2-Mz1</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
         <is>
           <t>M3-M2</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="L2" s="3" t="inlineStr">
         <is>
           <t>M4-M3</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>M5-M4</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2-Mz1</t>
         </is>
       </c>
     </row>
@@ -587,6 +636,12 @@
       <c r="F3" s="2" t="n"/>
       <c r="G3" s="2" t="n"/>
       <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -601,32 +656,62 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>-36,66%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>-35,45%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>-17,06%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>-9,64%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>-28,7%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>-24,06%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -639,32 +724,62 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-61,95; 4,21</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-63,89; 21,92</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-50,58; 35,07</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-46,95; 57,15</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-50,68; 0,96</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-48,16; 11,99</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -681,32 +796,62 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>0,73%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>-13,04%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>13,5%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>-34,94%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>7,03%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>-25,16%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -719,32 +864,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-39,79; 79,83</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-46,03; 44,4</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-21,42; 69,24</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-53,33; -12,12</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-21,91; 47,33</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-43,55; 2,21</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -761,32 +936,62 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>-33,21%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>-13,64%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>37,94%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>-14,78%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>-2,22%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>-14,24%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -799,32 +1004,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-55,27; 3,62</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-42,14; 28,56</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>4,06; 80,34</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-34,83; 10,09</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-22,91; 25,65</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-32,69; 9,78</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -841,32 +1076,62 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>-10,24%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>-23,86%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>31,58%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>-16,09%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>10,02%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>-19,79%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -879,32 +1144,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-36,1; 24,8</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-44,6; 5,16</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-1,02; 73,06</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-34,44; 7,49</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-10,07; 38,62</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-35,79; -3,73</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -921,32 +1216,62 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>-6,08%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>-3,11%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>20,67%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>-11,18%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>6,97%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>-7,58%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -959,32 +1284,62 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-33,95; 41,35</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-30,24; 39,46</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-17,46; 73,56</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-33,93; 18,53</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-17,91; 39,25</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-26,73; 16,65</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -1001,32 +1356,62 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>-43,19%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>41,25%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>-23,29%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>-15,49%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>-33,48%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>5,52%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -1039,32 +1424,62 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-67,12; -8,54</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-15,34; 124,63</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-48,73; 13,41</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-41,67; 18,92</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-52,22; -8,63</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-21,16; 39,17</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -1081,32 +1496,62 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>-24,12%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>-10,92%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>11,1%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>-17,67%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>-7,74%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>-14,56%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="N16" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -1119,47 +1564,84 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-38,48; -8,18</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-25,48; 6,2</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-4,55; 27,04</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-27,42; -5,39</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-18,69; 3,26</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-23,29; -5,8</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
       </c>
     </row>
   </sheetData>
   <mergeCells count="11">
     <mergeCell ref="A8:A9"/>
-    <mergeCell ref="C1:D1"/>
+    <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
-    <mergeCell ref="G1:H1"/>
-    <mergeCell ref="E1:F1"/>
-    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="A10:A11"/>
     <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:F1"/>
     <mergeCell ref="A16:A17"/>
+    <mergeCell ref="G1:J1"/>
     <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="K1:N1"/>
     <mergeCell ref="A14:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/data/long_razon/P23_2-Edad-long_razon.xlsx
+++ b/data/long_razon/P23_2-Edad-long_razon.xlsx
@@ -659,18 +659,42 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C4" s="5" t="inlineStr"/>
-      <c r="D4" s="5" t="inlineStr"/>
-      <c r="E4" s="5" t="inlineStr"/>
-      <c r="F4" s="5" t="inlineStr"/>
-      <c r="G4" s="5" t="inlineStr"/>
-      <c r="H4" s="5" t="inlineStr"/>
-      <c r="I4" s="5" t="inlineStr"/>
-      <c r="J4" s="5" t="inlineStr"/>
-      <c r="K4" s="5" t="inlineStr"/>
-      <c r="L4" s="5" t="inlineStr"/>
-      <c r="M4" s="5" t="inlineStr"/>
-      <c r="N4" s="5" t="inlineStr"/>
+      <c r="C4" s="5" t="n">
+        <v>-0.4168128050840042</v>
+      </c>
+      <c r="D4" s="5" t="n">
+        <v>-0.2091082969948643</v>
+      </c>
+      <c r="E4" s="5" t="n">
+        <v>1.445874654271048</v>
+      </c>
+      <c r="F4" s="5" t="n">
+        <v>0.7729501707780018</v>
+      </c>
+      <c r="G4" s="5" t="n">
+        <v>-0.07460596736194991</v>
+      </c>
+      <c r="H4" s="5" t="n">
+        <v>-0.1371632164819188</v>
+      </c>
+      <c r="I4" s="5" t="n">
+        <v>0.3017183107821377</v>
+      </c>
+      <c r="J4" s="5" t="n">
+        <v>0.09436961873919091</v>
+      </c>
+      <c r="K4" s="5" t="n">
+        <v>-0.2836144004154352</v>
+      </c>
+      <c r="L4" s="5" t="n">
+        <v>-0.1762372445670795</v>
+      </c>
+      <c r="M4" s="5" t="n">
+        <v>0.7061664325966091</v>
+      </c>
+      <c r="N4" s="5" t="n">
+        <v>0.4453778050202461</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n"/>
@@ -679,18 +703,42 @@
           <t>IC 95% inferior</t>
         </is>
       </c>
-      <c r="C5" s="5" t="inlineStr"/>
-      <c r="D5" s="5" t="inlineStr"/>
-      <c r="E5" s="5" t="inlineStr"/>
-      <c r="F5" s="5" t="inlineStr"/>
-      <c r="G5" s="5" t="inlineStr"/>
-      <c r="H5" s="5" t="inlineStr"/>
-      <c r="I5" s="5" t="inlineStr"/>
-      <c r="J5" s="5" t="inlineStr"/>
-      <c r="K5" s="5" t="inlineStr"/>
-      <c r="L5" s="5" t="inlineStr"/>
-      <c r="M5" s="5" t="inlineStr"/>
-      <c r="N5" s="5" t="inlineStr"/>
+      <c r="C5" s="5" t="n">
+        <v>-0.6841435717972302</v>
+      </c>
+      <c r="D5" s="5" t="n">
+        <v>-0.5839253878158399</v>
+      </c>
+      <c r="E5" s="5" t="n">
+        <v>0.04775504757220904</v>
+      </c>
+      <c r="F5" s="5" t="n">
+        <v>-0.169574337094533</v>
+      </c>
+      <c r="G5" s="5" t="n">
+        <v>-0.4255620861811205</v>
+      </c>
+      <c r="H5" s="5" t="n">
+        <v>-0.4827904285299042</v>
+      </c>
+      <c r="I5" s="5" t="n">
+        <v>-0.2491719965822488</v>
+      </c>
+      <c r="J5" s="5" t="n">
+        <v>-0.4807116282023622</v>
+      </c>
+      <c r="K5" s="5" t="n">
+        <v>-0.512720306020559</v>
+      </c>
+      <c r="L5" s="5" t="n">
+        <v>-0.4610319213903383</v>
+      </c>
+      <c r="M5" s="5" t="n">
+        <v>0.1220908007689962</v>
+      </c>
+      <c r="N5" s="5" t="n">
+        <v>-0.1376752236426195</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n"/>
@@ -699,18 +747,42 @@
           <t>IC 95% superior</t>
         </is>
       </c>
-      <c r="C6" s="5" t="inlineStr"/>
-      <c r="D6" s="5" t="inlineStr"/>
-      <c r="E6" s="5" t="inlineStr"/>
-      <c r="F6" s="5" t="inlineStr"/>
-      <c r="G6" s="5" t="inlineStr"/>
-      <c r="H6" s="5" t="inlineStr"/>
-      <c r="I6" s="5" t="inlineStr"/>
-      <c r="J6" s="5" t="inlineStr"/>
-      <c r="K6" s="5" t="inlineStr"/>
-      <c r="L6" s="5" t="inlineStr"/>
-      <c r="M6" s="5" t="inlineStr"/>
-      <c r="N6" s="5" t="inlineStr"/>
+      <c r="C6" s="5" t="n">
+        <v>-0.0519313057944373</v>
+      </c>
+      <c r="D6" s="5" t="n">
+        <v>0.4499514600369741</v>
+      </c>
+      <c r="E6" s="5" t="n">
+        <v>5.710117346627909</v>
+      </c>
+      <c r="F6" s="5" t="n">
+        <v>2.549511716218263</v>
+      </c>
+      <c r="G6" s="5" t="n">
+        <v>0.5567521443707097</v>
+      </c>
+      <c r="H6" s="5" t="n">
+        <v>0.5101789345642229</v>
+      </c>
+      <c r="I6" s="5" t="n">
+        <v>1.134477420113873</v>
+      </c>
+      <c r="J6" s="5" t="n">
+        <v>1.297624567681994</v>
+      </c>
+      <c r="K6" s="5" t="n">
+        <v>-0.02620876942360097</v>
+      </c>
+      <c r="L6" s="5" t="n">
+        <v>0.1844581574255308</v>
+      </c>
+      <c r="M6" s="5" t="n">
+        <v>1.809591069645014</v>
+      </c>
+      <c r="N6" s="5" t="n">
+        <v>1.470160329640723</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
@@ -723,18 +795,42 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C7" s="5" t="inlineStr"/>
-      <c r="D7" s="5" t="inlineStr"/>
-      <c r="E7" s="5" t="inlineStr"/>
-      <c r="F7" s="5" t="inlineStr"/>
-      <c r="G7" s="5" t="inlineStr"/>
-      <c r="H7" s="5" t="inlineStr"/>
-      <c r="I7" s="5" t="inlineStr"/>
-      <c r="J7" s="5" t="inlineStr"/>
-      <c r="K7" s="5" t="inlineStr"/>
-      <c r="L7" s="5" t="inlineStr"/>
-      <c r="M7" s="5" t="inlineStr"/>
-      <c r="N7" s="5" t="inlineStr"/>
+      <c r="C7" s="5" t="n">
+        <v>-0.01752159888484537</v>
+      </c>
+      <c r="D7" s="5" t="n">
+        <v>-0.1148637892810696</v>
+      </c>
+      <c r="E7" s="5" t="n">
+        <v>0.649756508032996</v>
+      </c>
+      <c r="F7" s="5" t="n">
+        <v>-0.009305738571960345</v>
+      </c>
+      <c r="G7" s="5" t="n">
+        <v>0.1322063594449137</v>
+      </c>
+      <c r="H7" s="5" t="n">
+        <v>-0.3391621935636934</v>
+      </c>
+      <c r="I7" s="5" t="n">
+        <v>0.5006158014511422</v>
+      </c>
+      <c r="J7" s="5" t="n">
+        <v>0.2045242010688974</v>
+      </c>
+      <c r="K7" s="5" t="n">
+        <v>0.05606111813605645</v>
+      </c>
+      <c r="L7" s="5" t="n">
+        <v>-0.239346243487674</v>
+      </c>
+      <c r="M7" s="5" t="n">
+        <v>0.574799172920505</v>
+      </c>
+      <c r="N7" s="5" t="n">
+        <v>0.1001212944517443</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n"/>
@@ -743,18 +839,42 @@
           <t>IC 95% inferior</t>
         </is>
       </c>
-      <c r="C8" s="5" t="inlineStr"/>
-      <c r="D8" s="5" t="inlineStr"/>
-      <c r="E8" s="5" t="inlineStr"/>
-      <c r="F8" s="5" t="inlineStr"/>
-      <c r="G8" s="5" t="inlineStr"/>
-      <c r="H8" s="5" t="inlineStr"/>
-      <c r="I8" s="5" t="inlineStr"/>
-      <c r="J8" s="5" t="inlineStr"/>
-      <c r="K8" s="5" t="inlineStr"/>
-      <c r="L8" s="5" t="inlineStr"/>
-      <c r="M8" s="5" t="inlineStr"/>
-      <c r="N8" s="5" t="inlineStr"/>
+      <c r="C8" s="5" t="n">
+        <v>-0.429641057918655</v>
+      </c>
+      <c r="D8" s="5" t="n">
+        <v>-0.4455185042117202</v>
+      </c>
+      <c r="E8" s="5" t="n">
+        <v>-0.1654632172421511</v>
+      </c>
+      <c r="F8" s="5" t="n">
+        <v>-0.6831499608300936</v>
+      </c>
+      <c r="G8" s="5" t="n">
+        <v>-0.2254688756921638</v>
+      </c>
+      <c r="H8" s="5" t="n">
+        <v>-0.5262088668330562</v>
+      </c>
+      <c r="I8" s="5" t="n">
+        <v>-0.05801255628189484</v>
+      </c>
+      <c r="J8" s="5" t="n">
+        <v>-0.2547050763775589</v>
+      </c>
+      <c r="K8" s="5" t="n">
+        <v>-0.220905055110733</v>
+      </c>
+      <c r="L8" s="5" t="n">
+        <v>-0.4351811396970054</v>
+      </c>
+      <c r="M8" s="5" t="n">
+        <v>-0.0029537812548137</v>
+      </c>
+      <c r="N8" s="5" t="n">
+        <v>-0.3602787866835759</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n"/>
@@ -763,18 +883,42 @@
           <t>IC 95% superior</t>
         </is>
       </c>
-      <c r="C9" s="5" t="inlineStr"/>
-      <c r="D9" s="5" t="inlineStr"/>
-      <c r="E9" s="5" t="inlineStr"/>
-      <c r="F9" s="5" t="inlineStr"/>
-      <c r="G9" s="5" t="inlineStr"/>
-      <c r="H9" s="5" t="inlineStr"/>
-      <c r="I9" s="5" t="inlineStr"/>
-      <c r="J9" s="5" t="inlineStr"/>
-      <c r="K9" s="5" t="inlineStr"/>
-      <c r="L9" s="5" t="inlineStr"/>
-      <c r="M9" s="5" t="inlineStr"/>
-      <c r="N9" s="5" t="inlineStr"/>
+      <c r="C9" s="5" t="n">
+        <v>0.7034288603173777</v>
+      </c>
+      <c r="D9" s="5" t="n">
+        <v>0.4289149757540157</v>
+      </c>
+      <c r="E9" s="5" t="n">
+        <v>2.315431189634593</v>
+      </c>
+      <c r="F9" s="5" t="n">
+        <v>1.506467953282217</v>
+      </c>
+      <c r="G9" s="5" t="n">
+        <v>0.6743226811960598</v>
+      </c>
+      <c r="H9" s="5" t="n">
+        <v>-0.08319300947387337</v>
+      </c>
+      <c r="I9" s="5" t="n">
+        <v>1.398161264637829</v>
+      </c>
+      <c r="J9" s="5" t="n">
+        <v>0.9784337976836613</v>
+      </c>
+      <c r="K9" s="5" t="n">
+        <v>0.4076362049710044</v>
+      </c>
+      <c r="L9" s="5" t="n">
+        <v>0.05386899470120923</v>
+      </c>
+      <c r="M9" s="5" t="n">
+        <v>1.389766346562498</v>
+      </c>
+      <c r="N9" s="5" t="n">
+        <v>0.8353381449765765</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
@@ -787,18 +931,42 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C10" s="5" t="inlineStr"/>
-      <c r="D10" s="5" t="inlineStr"/>
-      <c r="E10" s="5" t="inlineStr"/>
-      <c r="F10" s="5" t="inlineStr"/>
-      <c r="G10" s="5" t="inlineStr"/>
-      <c r="H10" s="5" t="inlineStr"/>
-      <c r="I10" s="5" t="inlineStr"/>
-      <c r="J10" s="5" t="inlineStr"/>
-      <c r="K10" s="5" t="inlineStr"/>
-      <c r="L10" s="5" t="inlineStr"/>
-      <c r="M10" s="5" t="inlineStr"/>
-      <c r="N10" s="5" t="inlineStr"/>
+      <c r="C10" s="5" t="n">
+        <v>-0.3022170136373994</v>
+      </c>
+      <c r="D10" s="5" t="n">
+        <v>-0.173288598159883</v>
+      </c>
+      <c r="E10" s="5" t="n">
+        <v>0.5909629593620724</v>
+      </c>
+      <c r="F10" s="5" t="n">
+        <v>0.3730278600685388</v>
+      </c>
+      <c r="G10" s="5" t="n">
+        <v>0.3749035784385648</v>
+      </c>
+      <c r="H10" s="5" t="n">
+        <v>-0.1440629991819622</v>
+      </c>
+      <c r="I10" s="5" t="n">
+        <v>-0.1822064960780791</v>
+      </c>
+      <c r="J10" s="5" t="n">
+        <v>0.4715795471072655</v>
+      </c>
+      <c r="K10" s="5" t="n">
+        <v>-0.005906492497358732</v>
+      </c>
+      <c r="L10" s="5" t="n">
+        <v>-0.1581373083991544</v>
+      </c>
+      <c r="M10" s="5" t="n">
+        <v>0.1265409897360282</v>
+      </c>
+      <c r="N10" s="5" t="n">
+        <v>0.4218395968580271</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n"/>
@@ -807,18 +975,42 @@
           <t>IC 95% inferior</t>
         </is>
       </c>
-      <c r="C11" s="5" t="inlineStr"/>
-      <c r="D11" s="5" t="inlineStr"/>
-      <c r="E11" s="5" t="inlineStr"/>
-      <c r="F11" s="5" t="inlineStr"/>
-      <c r="G11" s="5" t="inlineStr"/>
-      <c r="H11" s="5" t="inlineStr"/>
-      <c r="I11" s="5" t="inlineStr"/>
-      <c r="J11" s="5" t="inlineStr"/>
-      <c r="K11" s="5" t="inlineStr"/>
-      <c r="L11" s="5" t="inlineStr"/>
-      <c r="M11" s="5" t="inlineStr"/>
-      <c r="N11" s="5" t="inlineStr"/>
+      <c r="C11" s="5" t="n">
+        <v>-0.5542859737935205</v>
+      </c>
+      <c r="D11" s="5" t="n">
+        <v>-0.4412172590374879</v>
+      </c>
+      <c r="E11" s="5" t="n">
+        <v>0.004821933513291754</v>
+      </c>
+      <c r="F11" s="5" t="n">
+        <v>-0.1581549589964034</v>
+      </c>
+      <c r="G11" s="5" t="n">
+        <v>0.0419573925264298</v>
+      </c>
+      <c r="H11" s="5" t="n">
+        <v>-0.3273939818917265</v>
+      </c>
+      <c r="I11" s="5" t="n">
+        <v>-0.3784734127892863</v>
+      </c>
+      <c r="J11" s="5" t="n">
+        <v>0.005796892229592948</v>
+      </c>
+      <c r="K11" s="5" t="n">
+        <v>-0.2306098941480623</v>
+      </c>
+      <c r="L11" s="5" t="n">
+        <v>-0.3290801422592697</v>
+      </c>
+      <c r="M11" s="5" t="n">
+        <v>-0.1354135271176051</v>
+      </c>
+      <c r="N11" s="5" t="n">
+        <v>0.03825665261119979</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n"/>
@@ -827,18 +1019,42 @@
           <t>IC 95% superior</t>
         </is>
       </c>
-      <c r="C12" s="5" t="inlineStr"/>
-      <c r="D12" s="5" t="inlineStr"/>
-      <c r="E12" s="5" t="inlineStr"/>
-      <c r="F12" s="5" t="inlineStr"/>
-      <c r="G12" s="5" t="inlineStr"/>
-      <c r="H12" s="5" t="inlineStr"/>
-      <c r="I12" s="5" t="inlineStr"/>
-      <c r="J12" s="5" t="inlineStr"/>
-      <c r="K12" s="5" t="inlineStr"/>
-      <c r="L12" s="5" t="inlineStr"/>
-      <c r="M12" s="5" t="inlineStr"/>
-      <c r="N12" s="5" t="inlineStr"/>
+      <c r="C12" s="5" t="n">
+        <v>0.1627238755804385</v>
+      </c>
+      <c r="D12" s="5" t="n">
+        <v>0.2170036082906888</v>
+      </c>
+      <c r="E12" s="5" t="n">
+        <v>1.278986453537722</v>
+      </c>
+      <c r="F12" s="5" t="n">
+        <v>1.284704716628314</v>
+      </c>
+      <c r="G12" s="5" t="n">
+        <v>0.8360716585537113</v>
+      </c>
+      <c r="H12" s="5" t="n">
+        <v>0.1264520161467751</v>
+      </c>
+      <c r="I12" s="5" t="n">
+        <v>0.06439323542419573</v>
+      </c>
+      <c r="J12" s="5" t="n">
+        <v>1.262250311992836</v>
+      </c>
+      <c r="K12" s="5" t="n">
+        <v>0.2845408767075028</v>
+      </c>
+      <c r="L12" s="5" t="n">
+        <v>0.05792850017368183</v>
+      </c>
+      <c r="M12" s="5" t="n">
+        <v>0.4182523094241182</v>
+      </c>
+      <c r="N12" s="5" t="n">
+        <v>0.9969437806299596</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
@@ -851,18 +1067,42 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C13" s="5" t="inlineStr"/>
-      <c r="D13" s="5" t="inlineStr"/>
-      <c r="E13" s="5" t="inlineStr"/>
-      <c r="F13" s="5" t="inlineStr"/>
-      <c r="G13" s="5" t="inlineStr"/>
-      <c r="H13" s="5" t="inlineStr"/>
-      <c r="I13" s="5" t="inlineStr"/>
-      <c r="J13" s="5" t="inlineStr"/>
-      <c r="K13" s="5" t="inlineStr"/>
-      <c r="L13" s="5" t="inlineStr"/>
-      <c r="M13" s="5" t="inlineStr"/>
-      <c r="N13" s="5" t="inlineStr"/>
+      <c r="C13" s="5" t="n">
+        <v>-0.1006872185673068</v>
+      </c>
+      <c r="D13" s="5" t="n">
+        <v>-0.2494260769232819</v>
+      </c>
+      <c r="E13" s="5" t="n">
+        <v>0.3051036098986282</v>
+      </c>
+      <c r="F13" s="5" t="n">
+        <v>0.2921903328279176</v>
+      </c>
+      <c r="G13" s="5" t="n">
+        <v>0.360175916650019</v>
+      </c>
+      <c r="H13" s="5" t="n">
+        <v>-0.151718650219349</v>
+      </c>
+      <c r="I13" s="5" t="n">
+        <v>0.06879965899956754</v>
+      </c>
+      <c r="J13" s="5" t="n">
+        <v>0.05517128519230077</v>
+      </c>
+      <c r="K13" s="5" t="n">
+        <v>0.1243166047304509</v>
+      </c>
+      <c r="L13" s="5" t="n">
+        <v>-0.1984206886328244</v>
+      </c>
+      <c r="M13" s="5" t="n">
+        <v>0.1742701539176261</v>
+      </c>
+      <c r="N13" s="5" t="n">
+        <v>0.1841123913255903</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n"/>
@@ -871,18 +1111,42 @@
           <t>IC 95% inferior</t>
         </is>
       </c>
-      <c r="C14" s="5" t="inlineStr"/>
-      <c r="D14" s="5" t="inlineStr"/>
-      <c r="E14" s="5" t="inlineStr"/>
-      <c r="F14" s="5" t="inlineStr"/>
-      <c r="G14" s="5" t="inlineStr"/>
-      <c r="H14" s="5" t="inlineStr"/>
-      <c r="I14" s="5" t="inlineStr"/>
-      <c r="J14" s="5" t="inlineStr"/>
-      <c r="K14" s="5" t="inlineStr"/>
-      <c r="L14" s="5" t="inlineStr"/>
-      <c r="M14" s="5" t="inlineStr"/>
-      <c r="N14" s="5" t="inlineStr"/>
+      <c r="C14" s="5" t="n">
+        <v>-0.3695497426001993</v>
+      </c>
+      <c r="D14" s="5" t="n">
+        <v>-0.4651782689797697</v>
+      </c>
+      <c r="E14" s="5" t="n">
+        <v>-0.08195951555165533</v>
+      </c>
+      <c r="F14" s="5" t="n">
+        <v>-0.1458670688976353</v>
+      </c>
+      <c r="G14" s="5" t="n">
+        <v>0.03980134645817095</v>
+      </c>
+      <c r="H14" s="5" t="n">
+        <v>-0.3594187245211562</v>
+      </c>
+      <c r="I14" s="5" t="n">
+        <v>-0.1984463454168983</v>
+      </c>
+      <c r="J14" s="5" t="n">
+        <v>-0.3093493070999094</v>
+      </c>
+      <c r="K14" s="5" t="n">
+        <v>-0.08215385434707338</v>
+      </c>
+      <c r="L14" s="5" t="n">
+        <v>-0.3453054862080065</v>
+      </c>
+      <c r="M14" s="5" t="n">
+        <v>-0.05090934839856791</v>
+      </c>
+      <c r="N14" s="5" t="n">
+        <v>-0.1280001354453983</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n"/>
@@ -891,18 +1155,42 @@
           <t>IC 95% superior</t>
         </is>
       </c>
-      <c r="C15" s="5" t="inlineStr"/>
-      <c r="D15" s="5" t="inlineStr"/>
-      <c r="E15" s="5" t="inlineStr"/>
-      <c r="F15" s="5" t="inlineStr"/>
-      <c r="G15" s="5" t="inlineStr"/>
-      <c r="H15" s="5" t="inlineStr"/>
-      <c r="I15" s="5" t="inlineStr"/>
-      <c r="J15" s="5" t="inlineStr"/>
-      <c r="K15" s="5" t="inlineStr"/>
-      <c r="L15" s="5" t="inlineStr"/>
-      <c r="M15" s="5" t="inlineStr"/>
-      <c r="N15" s="5" t="inlineStr"/>
+      <c r="C15" s="5" t="n">
+        <v>0.2373442810625152</v>
+      </c>
+      <c r="D15" s="5" t="n">
+        <v>0.009891078853166929</v>
+      </c>
+      <c r="E15" s="5" t="n">
+        <v>0.94249920857773</v>
+      </c>
+      <c r="F15" s="5" t="n">
+        <v>1.027564056840677</v>
+      </c>
+      <c r="G15" s="5" t="n">
+        <v>0.7877966967536295</v>
+      </c>
+      <c r="H15" s="5" t="n">
+        <v>0.08011792145771369</v>
+      </c>
+      <c r="I15" s="5" t="n">
+        <v>0.4028481895654339</v>
+      </c>
+      <c r="J15" s="5" t="n">
+        <v>0.7068821785612661</v>
+      </c>
+      <c r="K15" s="5" t="n">
+        <v>0.3872150139014319</v>
+      </c>
+      <c r="L15" s="5" t="n">
+        <v>-0.03336527707723816</v>
+      </c>
+      <c r="M15" s="5" t="n">
+        <v>0.4664500525458671</v>
+      </c>
+      <c r="N15" s="5" t="n">
+        <v>0.6048797108366559</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
@@ -915,18 +1203,42 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C16" s="5" t="inlineStr"/>
-      <c r="D16" s="5" t="inlineStr"/>
-      <c r="E16" s="5" t="inlineStr"/>
-      <c r="F16" s="5" t="inlineStr"/>
-      <c r="G16" s="5" t="inlineStr"/>
-      <c r="H16" s="5" t="inlineStr"/>
-      <c r="I16" s="5" t="inlineStr"/>
-      <c r="J16" s="5" t="inlineStr"/>
-      <c r="K16" s="5" t="inlineStr"/>
-      <c r="L16" s="5" t="inlineStr"/>
-      <c r="M16" s="5" t="inlineStr"/>
-      <c r="N16" s="5" t="inlineStr"/>
+      <c r="C16" s="5" t="n">
+        <v>-0.06443395777188236</v>
+      </c>
+      <c r="D16" s="5" t="n">
+        <v>-0.02618819020793097</v>
+      </c>
+      <c r="E16" s="5" t="n">
+        <v>0.6488712798898704</v>
+      </c>
+      <c r="F16" s="5" t="n">
+        <v>0.5735704600050162</v>
+      </c>
+      <c r="G16" s="5" t="n">
+        <v>0.190478540143617</v>
+      </c>
+      <c r="H16" s="5" t="n">
+        <v>-0.0975942617525821</v>
+      </c>
+      <c r="I16" s="5" t="n">
+        <v>0.776575984410301</v>
+      </c>
+      <c r="J16" s="5" t="n">
+        <v>0.8322089465013423</v>
+      </c>
+      <c r="K16" s="5" t="n">
+        <v>0.05901105083800212</v>
+      </c>
+      <c r="L16" s="5" t="n">
+        <v>-0.06556331357290593</v>
+      </c>
+      <c r="M16" s="5" t="n">
+        <v>0.7172639761320564</v>
+      </c>
+      <c r="N16" s="5" t="n">
+        <v>0.7100585513487342</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n"/>
@@ -935,18 +1247,42 @@
           <t>IC 95% inferior</t>
         </is>
       </c>
-      <c r="C17" s="5" t="inlineStr"/>
-      <c r="D17" s="5" t="inlineStr"/>
-      <c r="E17" s="5" t="inlineStr"/>
-      <c r="F17" s="5" t="inlineStr"/>
-      <c r="G17" s="5" t="inlineStr"/>
-      <c r="H17" s="5" t="inlineStr"/>
-      <c r="I17" s="5" t="inlineStr"/>
-      <c r="J17" s="5" t="inlineStr"/>
-      <c r="K17" s="5" t="inlineStr"/>
-      <c r="L17" s="5" t="inlineStr"/>
-      <c r="M17" s="5" t="inlineStr"/>
-      <c r="N17" s="5" t="inlineStr"/>
+      <c r="C17" s="5" t="n">
+        <v>-0.3786474578076788</v>
+      </c>
+      <c r="D17" s="5" t="n">
+        <v>-0.2991202779723096</v>
+      </c>
+      <c r="E17" s="5" t="n">
+        <v>0.1031101366570117</v>
+      </c>
+      <c r="F17" s="5" t="n">
+        <v>-0.01260404203758157</v>
+      </c>
+      <c r="G17" s="5" t="n">
+        <v>-0.1848650548645098</v>
+      </c>
+      <c r="H17" s="5" t="n">
+        <v>-0.3526494884016563</v>
+      </c>
+      <c r="I17" s="5" t="n">
+        <v>0.2050454243150517</v>
+      </c>
+      <c r="J17" s="5" t="n">
+        <v>0.1869689468961317</v>
+      </c>
+      <c r="K17" s="5" t="n">
+        <v>-0.1966266864130285</v>
+      </c>
+      <c r="L17" s="5" t="n">
+        <v>-0.2599233837467989</v>
+      </c>
+      <c r="M17" s="5" t="n">
+        <v>0.339067468540278</v>
+      </c>
+      <c r="N17" s="5" t="n">
+        <v>0.2365941087634111</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n"/>
@@ -955,18 +1291,42 @@
           <t>IC 95% superior</t>
         </is>
       </c>
-      <c r="C18" s="5" t="inlineStr"/>
-      <c r="D18" s="5" t="inlineStr"/>
-      <c r="E18" s="5" t="inlineStr"/>
-      <c r="F18" s="5" t="inlineStr"/>
-      <c r="G18" s="5" t="inlineStr"/>
-      <c r="H18" s="5" t="inlineStr"/>
-      <c r="I18" s="5" t="inlineStr"/>
-      <c r="J18" s="5" t="inlineStr"/>
-      <c r="K18" s="5" t="inlineStr"/>
-      <c r="L18" s="5" t="inlineStr"/>
-      <c r="M18" s="5" t="inlineStr"/>
-      <c r="N18" s="5" t="inlineStr"/>
+      <c r="C18" s="5" t="n">
+        <v>0.3935823063818265</v>
+      </c>
+      <c r="D18" s="5" t="n">
+        <v>0.4250086715856984</v>
+      </c>
+      <c r="E18" s="5" t="n">
+        <v>1.433129448498187</v>
+      </c>
+      <c r="F18" s="5" t="n">
+        <v>1.737335121928213</v>
+      </c>
+      <c r="G18" s="5" t="n">
+        <v>0.7658665025755441</v>
+      </c>
+      <c r="H18" s="5" t="n">
+        <v>0.2460731376433661</v>
+      </c>
+      <c r="I18" s="5" t="n">
+        <v>1.549309386724151</v>
+      </c>
+      <c r="J18" s="5" t="n">
+        <v>1.741256546267485</v>
+      </c>
+      <c r="K18" s="5" t="n">
+        <v>0.3680539256120788</v>
+      </c>
+      <c r="L18" s="5" t="n">
+        <v>0.1746061580918542</v>
+      </c>
+      <c r="M18" s="5" t="n">
+        <v>1.270460501432672</v>
+      </c>
+      <c r="N18" s="5" t="n">
+        <v>1.356353330635549</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
@@ -979,18 +1339,42 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C19" s="5" t="inlineStr"/>
-      <c r="D19" s="5" t="inlineStr"/>
-      <c r="E19" s="5" t="inlineStr"/>
-      <c r="F19" s="5" t="inlineStr"/>
-      <c r="G19" s="5" t="inlineStr"/>
-      <c r="H19" s="5" t="inlineStr"/>
-      <c r="I19" s="5" t="inlineStr"/>
-      <c r="J19" s="5" t="inlineStr"/>
-      <c r="K19" s="5" t="inlineStr"/>
-      <c r="L19" s="5" t="inlineStr"/>
-      <c r="M19" s="5" t="inlineStr"/>
-      <c r="N19" s="5" t="inlineStr"/>
+      <c r="C19" s="5" t="n">
+        <v>-0.4220443743209716</v>
+      </c>
+      <c r="D19" s="5" t="n">
+        <v>0.3631497099410534</v>
+      </c>
+      <c r="E19" s="5" t="n">
+        <v>0.3297688185808051</v>
+      </c>
+      <c r="F19" s="5" t="n">
+        <v>0.2610438206305498</v>
+      </c>
+      <c r="G19" s="5" t="n">
+        <v>-0.2236605838506033</v>
+      </c>
+      <c r="H19" s="5" t="n">
+        <v>-0.1070115466134576</v>
+      </c>
+      <c r="I19" s="5" t="n">
+        <v>1.086425404690747</v>
+      </c>
+      <c r="J19" s="5" t="n">
+        <v>0.6380939172775446</v>
+      </c>
+      <c r="K19" s="5" t="n">
+        <v>-0.3243873158998037</v>
+      </c>
+      <c r="L19" s="5" t="n">
+        <v>0.06870206372507129</v>
+      </c>
+      <c r="M19" s="5" t="n">
+        <v>0.7064963888501611</v>
+      </c>
+      <c r="N19" s="5" t="n">
+        <v>0.4557812095353484</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n"/>
@@ -999,18 +1383,42 @@
           <t>IC 95% inferior</t>
         </is>
       </c>
-      <c r="C20" s="5" t="inlineStr"/>
-      <c r="D20" s="5" t="inlineStr"/>
-      <c r="E20" s="5" t="inlineStr"/>
-      <c r="F20" s="5" t="inlineStr"/>
-      <c r="G20" s="5" t="inlineStr"/>
-      <c r="H20" s="5" t="inlineStr"/>
-      <c r="I20" s="5" t="inlineStr"/>
-      <c r="J20" s="5" t="inlineStr"/>
-      <c r="K20" s="5" t="inlineStr"/>
-      <c r="L20" s="5" t="inlineStr"/>
-      <c r="M20" s="5" t="inlineStr"/>
-      <c r="N20" s="5" t="inlineStr"/>
+      <c r="C20" s="5" t="n">
+        <v>-0.6837857969369676</v>
+      </c>
+      <c r="D20" s="5" t="n">
+        <v>-0.1636639395334314</v>
+      </c>
+      <c r="E20" s="5" t="n">
+        <v>-0.1781238556483468</v>
+      </c>
+      <c r="F20" s="5" t="n">
+        <v>-0.2294778344995583</v>
+      </c>
+      <c r="G20" s="5" t="n">
+        <v>-0.4830275200766829</v>
+      </c>
+      <c r="H20" s="5" t="n">
+        <v>-0.3816174872364464</v>
+      </c>
+      <c r="I20" s="5" t="n">
+        <v>0.2211405105882687</v>
+      </c>
+      <c r="J20" s="5" t="n">
+        <v>-0.1080906802896215</v>
+      </c>
+      <c r="K20" s="5" t="n">
+        <v>-0.5112774275992685</v>
+      </c>
+      <c r="L20" s="5" t="n">
+        <v>-0.1988628836678614</v>
+      </c>
+      <c r="M20" s="5" t="n">
+        <v>0.2222707092122681</v>
+      </c>
+      <c r="N20" s="5" t="n">
+        <v>-0.03832693630263615</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n"/>
@@ -1019,18 +1427,42 @@
           <t>IC 95% superior</t>
         </is>
       </c>
-      <c r="C21" s="5" t="inlineStr"/>
-      <c r="D21" s="5" t="inlineStr"/>
-      <c r="E21" s="5" t="inlineStr"/>
-      <c r="F21" s="5" t="inlineStr"/>
-      <c r="G21" s="5" t="inlineStr"/>
-      <c r="H21" s="5" t="inlineStr"/>
-      <c r="I21" s="5" t="inlineStr"/>
-      <c r="J21" s="5" t="inlineStr"/>
-      <c r="K21" s="5" t="inlineStr"/>
-      <c r="L21" s="5" t="inlineStr"/>
-      <c r="M21" s="5" t="inlineStr"/>
-      <c r="N21" s="5" t="inlineStr"/>
+      <c r="C21" s="5" t="n">
+        <v>-0.1076117705152017</v>
+      </c>
+      <c r="D21" s="5" t="n">
+        <v>1.113495631483051</v>
+      </c>
+      <c r="E21" s="5" t="n">
+        <v>1.27109872493209</v>
+      </c>
+      <c r="F21" s="5" t="n">
+        <v>1.100548975670995</v>
+      </c>
+      <c r="G21" s="5" t="n">
+        <v>0.1448798300247506</v>
+      </c>
+      <c r="H21" s="5" t="n">
+        <v>0.2724768104390997</v>
+      </c>
+      <c r="I21" s="5" t="n">
+        <v>2.452063737377268</v>
+      </c>
+      <c r="J21" s="5" t="n">
+        <v>1.982216730655774</v>
+      </c>
+      <c r="K21" s="5" t="n">
+        <v>-0.06305119975118172</v>
+      </c>
+      <c r="L21" s="5" t="n">
+        <v>0.4157443835319536</v>
+      </c>
+      <c r="M21" s="5" t="n">
+        <v>1.45764562505928</v>
+      </c>
+      <c r="N21" s="5" t="n">
+        <v>1.268882421629739</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
@@ -1043,18 +1475,42 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C22" s="5" t="inlineStr"/>
-      <c r="D22" s="5" t="inlineStr"/>
-      <c r="E22" s="5" t="inlineStr"/>
-      <c r="F22" s="5" t="inlineStr"/>
-      <c r="G22" s="5" t="inlineStr"/>
-      <c r="H22" s="5" t="inlineStr"/>
-      <c r="I22" s="5" t="inlineStr"/>
-      <c r="J22" s="5" t="inlineStr"/>
-      <c r="K22" s="5" t="inlineStr"/>
-      <c r="L22" s="5" t="inlineStr"/>
-      <c r="M22" s="5" t="inlineStr"/>
-      <c r="N22" s="5" t="inlineStr"/>
+      <c r="C22" s="5" t="n">
+        <v>-0.2473030918642433</v>
+      </c>
+      <c r="D22" s="5" t="n">
+        <v>-0.09995146382817413</v>
+      </c>
+      <c r="E22" s="5" t="n">
+        <v>0.5631767961849317</v>
+      </c>
+      <c r="F22" s="5" t="n">
+        <v>0.3480403715564231</v>
+      </c>
+      <c r="G22" s="5" t="n">
+        <v>0.1277415356064579</v>
+      </c>
+      <c r="H22" s="5" t="n">
+        <v>-0.1652909497451386</v>
+      </c>
+      <c r="I22" s="5" t="n">
+        <v>0.3192930394530658</v>
+      </c>
+      <c r="J22" s="5" t="n">
+        <v>0.3900348522307421</v>
+      </c>
+      <c r="K22" s="5" t="n">
+        <v>-0.07365352471669562</v>
+      </c>
+      <c r="L22" s="5" t="n">
+        <v>-0.1351490433191662</v>
+      </c>
+      <c r="M22" s="5" t="n">
+        <v>0.4272128516900945</v>
+      </c>
+      <c r="N22" s="5" t="n">
+        <v>0.3689001923797846</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n"/>
@@ -1063,18 +1519,42 @@
           <t>IC 95% inferior</t>
         </is>
       </c>
-      <c r="C23" s="5" t="inlineStr"/>
-      <c r="D23" s="5" t="inlineStr"/>
-      <c r="E23" s="5" t="inlineStr"/>
-      <c r="F23" s="5" t="inlineStr"/>
-      <c r="G23" s="5" t="inlineStr"/>
-      <c r="H23" s="5" t="inlineStr"/>
-      <c r="I23" s="5" t="inlineStr"/>
-      <c r="J23" s="5" t="inlineStr"/>
-      <c r="K23" s="5" t="inlineStr"/>
-      <c r="L23" s="5" t="inlineStr"/>
-      <c r="M23" s="5" t="inlineStr"/>
-      <c r="N23" s="5" t="inlineStr"/>
+      <c r="C23" s="5" t="n">
+        <v>-0.3892579340974482</v>
+      </c>
+      <c r="D23" s="5" t="n">
+        <v>-0.253376651785462</v>
+      </c>
+      <c r="E23" s="5" t="n">
+        <v>0.2441249342550005</v>
+      </c>
+      <c r="F23" s="5" t="n">
+        <v>0.06046071820819765</v>
+      </c>
+      <c r="G23" s="5" t="n">
+        <v>-0.03672569599816069</v>
+      </c>
+      <c r="H23" s="5" t="n">
+        <v>-0.2694655970294521</v>
+      </c>
+      <c r="I23" s="5" t="n">
+        <v>0.1337285920696541</v>
+      </c>
+      <c r="J23" s="5" t="n">
+        <v>0.1282514651536019</v>
+      </c>
+      <c r="K23" s="5" t="n">
+        <v>-0.1741696550527217</v>
+      </c>
+      <c r="L23" s="5" t="n">
+        <v>-0.219689750407852</v>
+      </c>
+      <c r="M23" s="5" t="n">
+        <v>0.263594804148207</v>
+      </c>
+      <c r="N23" s="5" t="n">
+        <v>0.1675342489527477</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n"/>
@@ -1083,18 +1563,42 @@
           <t>IC 95% superior</t>
         </is>
       </c>
-      <c r="C24" s="5" t="inlineStr"/>
-      <c r="D24" s="5" t="inlineStr"/>
-      <c r="E24" s="5" t="inlineStr"/>
-      <c r="F24" s="5" t="inlineStr"/>
-      <c r="G24" s="5" t="inlineStr"/>
-      <c r="H24" s="5" t="inlineStr"/>
-      <c r="I24" s="5" t="inlineStr"/>
-      <c r="J24" s="5" t="inlineStr"/>
-      <c r="K24" s="5" t="inlineStr"/>
-      <c r="L24" s="5" t="inlineStr"/>
-      <c r="M24" s="5" t="inlineStr"/>
-      <c r="N24" s="5" t="inlineStr"/>
+      <c r="C24" s="5" t="n">
+        <v>-0.09732528631590322</v>
+      </c>
+      <c r="D24" s="5" t="n">
+        <v>0.06840630797149999</v>
+      </c>
+      <c r="E24" s="5" t="n">
+        <v>0.9258620233686534</v>
+      </c>
+      <c r="F24" s="5" t="n">
+        <v>0.7248144393580551</v>
+      </c>
+      <c r="G24" s="5" t="n">
+        <v>0.2897777449339629</v>
+      </c>
+      <c r="H24" s="5" t="n">
+        <v>-0.04301786351790052</v>
+      </c>
+      <c r="I24" s="5" t="n">
+        <v>0.5466226792262029</v>
+      </c>
+      <c r="J24" s="5" t="n">
+        <v>0.7372214261934279</v>
+      </c>
+      <c r="K24" s="5" t="n">
+        <v>0.03817187321523201</v>
+      </c>
+      <c r="L24" s="5" t="n">
+        <v>-0.02857907380243095</v>
+      </c>
+      <c r="M24" s="5" t="n">
+        <v>0.6220988867477435</v>
+      </c>
+      <c r="N24" s="5" t="n">
+        <v>0.603940110510872</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
